--- a/easyexcel-test/src/test/resources/dataformat/dataformat.xlsx
+++ b/easyexcel-test/src/test/resources/dataformat/dataformat.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhuangjiaju/IdeaProjects/tmp/easyexcel/src/test/resources/dataformat/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E316B3C4-A3FD-084B-81DF-FB975BF9B905}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="8700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="52">
   <si>
     <t>date</t>
   </si>
@@ -108,9 +102,21 @@
     <t>01/01/20</t>
   </si>
   <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>1-一月</t>
+  </si>
+  <si>
     <t>1-Jan</t>
   </si>
   <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>1-一月-20</t>
+  </si>
+  <si>
     <t>1-Jan-20</t>
   </si>
   <si>
@@ -120,9 +126,15 @@
     <t>January/20</t>
   </si>
   <si>
+    <t>一/20</t>
+  </si>
+  <si>
     <t>J/20</t>
   </si>
   <si>
+    <t>一</t>
+  </si>
+  <si>
     <t>J</t>
   </si>
   <si>
@@ -159,55 +171,41 @@
     <t>2020年1月1日 1:01:01</t>
   </si>
   <si>
-    <t>0.11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-一月-20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-一月</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一/20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5%</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>2020-01-01 1:01:01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="18">
-    <numFmt numFmtId="176" formatCode="mmmm/yy"/>
-    <numFmt numFmtId="177" formatCode="yy/m/d"/>
-    <numFmt numFmtId="178" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="179" formatCode="\¥#,##0;\¥\-#,##0"/>
-    <numFmt numFmtId="180" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="181" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
-    <numFmt numFmtId="182" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="183" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
-    <numFmt numFmtId="184" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
-    <numFmt numFmtId="185" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="186" formatCode="\$#,##0.0000;[Red]\$#,##0.0000"/>
-    <numFmt numFmtId="187" formatCode="mmmmm"/>
-    <numFmt numFmtId="188" formatCode="mmmmm/yy"/>
-    <numFmt numFmtId="189" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="190" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;\ h:mm:ss"/>
-    <numFmt numFmtId="191" formatCode="m/d"/>
-    <numFmt numFmtId="192" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="193" formatCode="0.00_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="25">
+    <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
+    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
+    <numFmt numFmtId="178" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
+    <numFmt numFmtId="179" formatCode="mmmm/yy"/>
+    <numFmt numFmtId="180" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="181" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="182" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;\ h:mm:ss"/>
+    <numFmt numFmtId="183" formatCode="\$#,##0.0000;[Red]\$#,##0.0000"/>
+    <numFmt numFmtId="184" formatCode="\¥#,##0;\¥\-#,##0"/>
+    <numFmt numFmtId="185" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="186" formatCode="yy/m/d"/>
+    <numFmt numFmtId="187" formatCode="m/d"/>
+    <numFmt numFmtId="188" formatCode="0.00_ "/>
+    <numFmt numFmtId="189" formatCode="mmmmm/yy"/>
+    <numFmt numFmtId="190" formatCode="mmmmm"/>
+    <numFmt numFmtId="191" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="192" formatCode="h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="193" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="194" formatCode="e\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,22 +217,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -242,17 +224,154 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -265,8 +384,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -289,16 +594,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -317,127 +861,176 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="57" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="57" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="189" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="191" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="192" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="32" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="55" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="193" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="32" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="55" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="192" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="193" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="百分比" xfId="1" builtinId="5"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -724,24 +1317,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="26.1640625" customWidth="1"/>
+    <col min="1" max="1" width="26.1666666666667" customWidth="1"/>
     <col min="2" max="3" width="22.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125"/>
-    <col min="5" max="5" width="22.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.3333333333333"/>
+    <col min="5" max="5" width="22.6666666666667" style="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -767,7 +1360,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2">
-        <v>43831.042372685202</v>
+        <v>43831.0423726852</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -787,7 +1380,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3">
-        <v>43831.042372685202</v>
+        <v>43831.0423726852</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
@@ -807,7 +1400,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5">
-        <v>43831.042372685202</v>
+        <v>43831.0423726852</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
@@ -827,7 +1420,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="7">
-        <v>43831.042372685202</v>
+        <v>43831.0423726852</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>12</v>
@@ -847,7 +1440,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="9">
-        <v>43831.042372685202</v>
+        <v>43831.0423726852</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>14</v>
@@ -867,7 +1460,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="11">
-        <v>43831.042372685202</v>
+        <v>43831.0423726852</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>16</v>
@@ -887,7 +1480,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13">
-        <v>43831.042372685202</v>
+        <v>43831.0423726852</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>12</v>
@@ -907,7 +1500,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="15">
-        <v>43831.042372685202</v>
+        <v>43831.0423726852</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>14</v>
@@ -927,7 +1520,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="17">
-        <v>43831.042372685202</v>
+        <v>43831.0423726852</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>16</v>
@@ -936,7 +1529,7 @@
         <v>16</v>
       </c>
       <c r="D10" s="18">
-        <v>1111.1111000000001</v>
+        <v>1111.1111</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>20</v>
@@ -947,7 +1540,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="19">
-        <v>43831.042372685202</v>
+        <v>43831.0423726852</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>21</v>
@@ -956,7 +1549,7 @@
         <v>22</v>
       </c>
       <c r="D11" s="20">
-        <v>1111.1111000000001</v>
+        <v>1111.1111</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>23</v>
@@ -967,7 +1560,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="21">
-        <v>43831.042372685202</v>
+        <v>43831.0423726852</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>24</v>
@@ -976,7 +1569,7 @@
         <v>24</v>
       </c>
       <c r="D12" s="22">
-        <v>1111.1111000000001</v>
+        <v>1111.1111</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>25</v>
@@ -987,7 +1580,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="23">
-        <v>43831.042372685202</v>
+        <v>43831.0423726852</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>26</v>
@@ -1007,7 +1600,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="24">
-        <v>43831.042372685202</v>
+        <v>43831.0423726852</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>27</v>
@@ -1015,213 +1608,227 @@
       <c r="C14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="40">
+      <c r="D14" s="25">
         <v>0.105</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" ht="15.6" spans="1:6">
+      <c r="A15" s="27">
+        <v>43831.0423726852</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="28">
+        <v>0.045</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="29">
+        <v>43831.0423726852</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="30">
+        <v>43831.0423726852</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="31">
+        <v>43831.0423726852</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="32">
+        <v>43831.0423726852</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="33">
+        <v>43831.0423726852</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="34">
+        <v>43831.0423726852</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="35">
+        <v>43831.0423726852</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="36">
+        <v>43831.0423726852</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="39" t="s">
+      <c r="C23" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="17">
-      <c r="A15" s="25">
-        <v>43831.042372685202</v>
-      </c>
-      <c r="B15" s="39" t="s">
+    <row r="24" spans="1:3">
+      <c r="A24" s="37">
+        <v>43831.0423726852</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="41">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="E15" s="1" t="s">
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="38">
+        <v>43831.0423726852</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="39">
+        <v>43831.0423726852</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="40">
+        <v>43831.0423726852</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="41">
+        <v>43831.0423726852</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="26">
-        <v>43831.042372685202</v>
-      </c>
-      <c r="B16" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="27">
-        <v>43831.042372685202</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="28">
-        <v>43831.042372685202</v>
-      </c>
-      <c r="B18" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="29">
-        <v>43831.042372685202</v>
-      </c>
-      <c r="B19" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="30">
-        <v>43831.042372685202</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="31">
-        <v>43831.042372685202</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="32">
-        <v>43831.042372685202</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="33">
-        <v>43831.042372685202</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="34">
-        <v>43831.042372685202</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="35">
-        <v>43831.042372685202</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="36">
-        <v>43831.042372685202</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="37">
-        <v>43831.042372685202</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="38">
-        <v>43831.042372685202</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="38"/>
+      <c r="A29" s="42">
+        <v>43831.0423726852</v>
+      </c>
+      <c r="B29" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="43" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/easyexcel-test/src/test/resources/dataformat/dataformat.xlsx
+++ b/easyexcel-test/src/test/resources/dataformat/dataformat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhuangjiaju/IdeaProjects/tmp/easyexcel/src/test/resources/dataformat/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhuangjiaju/IdeaProjects/easyexcel/easyexcel-test/src/test/resources/dataformat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E316B3C4-A3FD-084B-81DF-FB975BF9B905}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647E7A7E-E169-7A4D-8C68-2762F98648D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6100" yWindow="8300" windowWidth="28800" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="53">
   <si>
     <t>date</t>
   </si>
@@ -181,6 +181,13 @@
   <si>
     <t>5%</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateStringCn2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1月</t>
   </si>
 </sst>
 </file>
@@ -413,7 +420,7 @@
     <xf numFmtId="189" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="190" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="190" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -730,465 +737,474 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="26.1640625" customWidth="1"/>
-    <col min="2" max="3" width="22.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125"/>
-    <col min="5" max="5" width="22.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18" style="1" customWidth="1"/>
+    <col min="2" max="4" width="22.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125"/>
+    <col min="6" max="6" width="22.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="2">
         <v>43831.042372685202</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>1.1111</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="3">
         <v>43831.042372685202</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4">
+      <c r="E3" s="4">
         <v>1.1111</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="5">
         <v>43831.042372685202</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="6">
+      <c r="E4" s="6">
         <v>1.1111</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="7">
         <v>43831.042372685202</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="8">
+      <c r="E5" s="8">
         <v>1.1111</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="9">
         <v>43831.042372685202</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="10">
+      <c r="E6" s="10">
         <v>1.1111</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="11">
         <v>43831.042372685202</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="12">
+      <c r="E7" s="12">
         <v>1.1111</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="13">
         <v>43831.042372685202</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="14">
+      <c r="E8" s="14">
         <v>1.1111</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="15">
         <v>43831.042372685202</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="16">
+      <c r="E9" s="16">
         <v>1.1111</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="17">
         <v>43831.042372685202</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="18">
+      <c r="E10" s="18">
         <v>1111.1111000000001</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="19">
         <v>43831.042372685202</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="20">
+      <c r="E11" s="20">
         <v>1111.1111000000001</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="21">
         <v>43831.042372685202</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="22">
+      <c r="E12" s="22">
         <v>1111.1111000000001</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="23">
         <v>43831.042372685202</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>1</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="24">
         <v>43831.042372685202</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="40">
+      <c r="E14" s="40">
         <v>0.105</v>
-      </c>
-      <c r="E14" s="39" t="s">
-        <v>45</v>
       </c>
       <c r="F14" s="39" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="17">
+      <c r="G14" s="39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="17">
       <c r="A15" s="25">
         <v>43831.042372685202</v>
       </c>
       <c r="B15" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="41">
+      <c r="E15" s="41">
         <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="26">
         <v>43831.042372685202</v>
       </c>
       <c r="B16" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="39"/>
+      <c r="D16" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:4">
       <c r="A17" s="27">
         <v>43831.042372685202</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:4">
       <c r="A18" s="28">
         <v>43831.042372685202</v>
       </c>
       <c r="B18" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="39"/>
+      <c r="D18" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:4">
       <c r="A19" s="29">
         <v>43831.042372685202</v>
       </c>
       <c r="B19" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="39"/>
+      <c r="D19" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:4">
       <c r="A20" s="30">
         <v>43831.042372685202</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:4">
       <c r="A21" s="31">
         <v>43831.042372685202</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:4">
       <c r="A22" s="32">
         <v>43831.042372685202</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:4">
       <c r="A23" s="33">
         <v>43831.042372685202</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:4">
       <c r="A24" s="34">
         <v>43831.042372685202</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:4">
       <c r="A25" s="35">
         <v>43831.042372685202</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:4">
       <c r="A26" s="36">
         <v>43831.042372685202</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:4">
       <c r="A27" s="37">
         <v>43831.042372685202</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:4">
       <c r="A28" s="38">
         <v>43831.042372685202</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:4">
       <c r="A29" s="38"/>
     </row>
   </sheetData>

--- a/easyexcel-test/src/test/resources/dataformat/dataformat.xlsx
+++ b/easyexcel-test/src/test/resources/dataformat/dataformat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhuangjiaju/IdeaProjects/easyexcel/easyexcel-test/src/test/resources/dataformat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647E7A7E-E169-7A4D-8C68-2762F98648D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B9E119-2E5A-E642-B6F2-C2AECB207918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6100" yWindow="8300" windowWidth="28800" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="56">
   <si>
     <t>date</t>
   </si>
@@ -188,6 +188,16 @@
   </si>
   <si>
     <t>1-1月</t>
+  </si>
+  <si>
+    <t>1-1月-20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月/20</t>
+  </si>
+  <si>
+    <t>1月</t>
   </si>
 </sst>
 </file>
@@ -739,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1065,7 +1075,9 @@
       <c r="B16" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="39"/>
+      <c r="C16" s="39" t="s">
+        <v>53</v>
+      </c>
       <c r="D16" s="1" t="s">
         <v>29</v>
       </c>
@@ -1077,6 +1089,9 @@
       <c r="B17" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="C17" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="D17" s="1" t="s">
         <v>31</v>
       </c>
@@ -1088,7 +1103,9 @@
       <c r="B18" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="39"/>
+      <c r="C18" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="D18" s="1" t="s">
         <v>32</v>
       </c>
@@ -1100,7 +1117,9 @@
       <c r="B19" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="39"/>
+      <c r="C19" s="39" t="s">
+        <v>55</v>
+      </c>
       <c r="D19" s="1" t="s">
         <v>33</v>
       </c>
